--- a/Descargas/R15_Tribunal De Juicio Oral En Lo Penal De Colina_Sentencias Por Delito_2020-Enero.xlsx
+++ b/Descargas/R15_Tribunal De Juicio Oral En Lo Penal De Colina_Sentencias Por Delito_2020-Enero.xlsx
@@ -201,8 +201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
-    <col min="2" max="2" width="28.35" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,15 +215,10 @@
     <row r="2">
       <c t="inlineStr" r="A2" s="2">
         <is>
-          <t xml:space="preserve">Tribunal</t>
+          <t xml:space="preserve">Materia</t>
         </is>
       </c>
       <c t="inlineStr" r="B2" s="2">
-        <is>
-          <t xml:space="preserve">Motivo Término</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C2" s="2">
         <is>
           <t xml:space="preserve">Total</t>
         </is>
@@ -233,21 +227,146 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Tribunal De Juicio Oral En Lo Penal Colina</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B3">
-        <is>
-          <t xml:space="preserve">Absolución O Condena.</t>
-        </is>
-      </c>
-      <c r="C3" s="65">
-        <v>7</v>
+          <t xml:space="preserve">Abuso Sexual Con Contacto De Menor De 14 Años. Art. 366 Bis</t>
+        </is>
+      </c>
+      <c r="B3" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="inlineStr" r="A4">
+        <is>
+          <t xml:space="preserve">Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación</t>
+        </is>
+      </c>
+      <c r="B4" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="inlineStr" r="A5">
+        <is>
+          <t xml:space="preserve">Adquisicion O Almacenamiento Material Pornografico Infantil.</t>
+        </is>
+      </c>
+      <c r="B5" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="inlineStr" r="A6">
+        <is>
+          <t xml:space="preserve">Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
+        </is>
+      </c>
+      <c r="B6" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="inlineStr" r="A7">
+        <is>
+          <t xml:space="preserve">Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
+        </is>
+      </c>
+      <c r="B7" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="inlineStr" r="A8">
+        <is>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
+        </is>
+      </c>
+      <c r="B8" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="inlineStr" r="A9">
+        <is>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+        </is>
+      </c>
+      <c r="B9" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="inlineStr" r="A10">
+        <is>
+          <t xml:space="preserve">Otros Delitos De La Ley 20.000.</t>
+        </is>
+      </c>
+      <c r="B10" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="inlineStr" r="A11">
+        <is>
+          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
+        </is>
+      </c>
+      <c r="B11" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="inlineStr" r="A12">
+        <is>
+          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
+        </is>
+      </c>
+      <c r="B12" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+        </is>
+      </c>
+      <c r="B13" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="inlineStr" r="A14">
+        <is>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+        </is>
+      </c>
+      <c r="B14" s="65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="inlineStr" r="A15">
+        <is>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
+        </is>
+      </c>
+      <c r="B15" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="inlineStr" r="A16">
+        <is>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+        </is>
+      </c>
+      <c r="B16" s="65">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
 </worksheet>
 </file>